--- a/rapor.xlsx
+++ b/rapor.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">TEST </t>
+    <t>test name</t>
   </si>
   <si>
-    <t>SONUÇ</t>
-  </si>
-  <si>
-    <t>fsdfsd</t>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -30,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -45,7 +42,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54,13 +58,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,18 +78,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,84 +184,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,7 +194,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,25 +362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,178 +378,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,15 +408,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,18 +476,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,137 +508,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -724,7 +701,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,35 +958,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="57.1111111111111" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>